--- a/data/2023/recordings.xlsx
+++ b/data/2023/recordings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\EFSPI\webpage\20_workshop\efspiworkshop\data\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\EFSPI\webpages\20_workshop\workshop\data\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Session</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>https://youtu.be/WW5P_tMTt08</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Bx1eKDW-gcs</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="115.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -590,9 +593,11 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
